--- a/data/diabetes_meta_toy_messy.xlsx
+++ b/data/diabetes_meta_toy_messy.xlsx
@@ -377,24 +377,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>58631</t>
+          <t>43717</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41069</t>
+          <t>57419</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -411,29 +411,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>49130</t>
+          <t>54918</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17608</t>
+          <t>8154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -443,60 +443,50 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>33404</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>45535</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>59906</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27029</t>
+          <t>12062</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>63973</t>
+          <t>27169</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -506,14 +496,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>62608</t>
+          <t>69112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -523,14 +513,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>68025</t>
+          <t>38829</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -540,31 +530,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21077</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27169</t>
+          <t>28484</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -574,14 +564,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>54724</t>
+          <t>69551</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -591,14 +581,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>64908</t>
+          <t>13491</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -615,29 +605,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>61465</t>
+          <t>25774</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>29281</t>
+          <t>44033</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,41 +639,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55232</t>
+          <t>68023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>70042</t>
+          <t>65946</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>66258</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -700,7 +690,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>61350</t>
+          <t>59190</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -717,7 +707,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>16934</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -727,19 +717,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14164</t>
+          <t>24892</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -751,7 +741,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15266</t>
+          <t>24669</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -761,14 +751,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25831</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -785,7 +775,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -795,31 +785,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>46527</t>
-        </is>
-      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">70374 </t>
+          <t>48298</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -836,12 +821,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20351</t>
+          <t>70374</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -853,12 +838,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>65105</t>
+          <t>29281</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -870,24 +855,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37132</t>
+          <t>30184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38829</t>
+          <t>43364</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -897,14 +882,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10159</t>
+          <t>65105</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -921,7 +906,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>42072</t>
+          <t>40311</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -931,14 +916,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>27757</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -948,14 +933,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Privat-e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40670</t>
+          <t>34299</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,29 +957,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9608</t>
+          <t>33943</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>71796</t>
+          <t>12095</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1006,12 +991,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>33175</t>
+          <t>46468</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1023,24 +1008,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>34299</t>
+          <t>36338</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30669</t>
+          <t>18518</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1050,14 +1035,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1067,14 +1052,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>48272</t>
+          <t>36857</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1091,41 +1076,41 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10449</t>
+          <t>39186</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>P-ublic</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>50522</t>
+          <t>20387</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N#o</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>46785</t>
+          <t>63884</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1135,14 +1120,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>35846</t>
+          <t>31563</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1159,24 +1144,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>46474</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>58282</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1186,36 +1171,36 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>37090</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10548</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1227,24 +1212,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>24447</t>
+          <t>67210</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Retired</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>24905</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1254,14 +1239,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Retired</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>60491</t>
+          <t>46703</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1278,24 +1263,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>48298</t>
+          <t>69959</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36471</t>
+          <t>51983</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1312,7 +1297,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>60182</t>
+          <t>60491</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1322,14 +1307,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>54921</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1339,14 +1324,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>63453</t>
+          <t>28799</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1356,19 +1341,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>66071</t>
+          <t>9637</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1380,12 +1365,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>20351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1397,7 +1382,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13547</t>
+          <t>54567</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1414,24 +1399,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12917</t>
+          <t>67855</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>65199</t>
+          <t>21077</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1448,24 +1433,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>59190</t>
+          <t>33175</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45719</t>
+          <t>7559</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1475,14 +1460,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Publi+c</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>27458</t>
+          <t>28526</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1492,31 +1477,31 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>71750</t>
+          <t>21956</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>53882</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1526,14 +1511,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8154</t>
+          <t>18108</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1550,24 +1535,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>68483</t>
+          <t>37726</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>23368</t>
+          <t>56681</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1584,7 +1569,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>40460</t>
+          <t>56841</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1601,7 +1586,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24892</t>
+          <t>22091</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1618,41 +1603,41 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>67855</t>
+          <t>17242</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">47167 </t>
+          <t>51112</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>49589</t>
+          <t>45965</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1662,14 +1647,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>29933</t>
+          <t>63453</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1679,48 +1664,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>P*ublic</t>
+          <t>Publ&amp;ic</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>62019</t>
+          <t>18937</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Y%es</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>28286</t>
+          <t>42072</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Y%es</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>56546</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1737,24 +1722,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>27832</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>11933</t>
+          <t>66196</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1764,14 +1749,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49421</t>
+          <t>50441</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1788,7 +1773,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>54827</t>
+          <t>34668</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1798,14 +1783,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Self-empl.oyed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>72366</t>
+          <t>7937</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1820,26 +1805,21 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1703</t>
-        </is>
-      </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>16380</t>
+          <t>47167</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1849,14 +1829,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>66400</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1866,14 +1846,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>67431</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1883,7 +1863,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Self-e$mployed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
@@ -1907,41 +1887,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20426</t>
+          <t>64778</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>50931</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>22622</t>
+          <t>11762</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1951,14 +1931,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Self$-employed</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>37089</t>
+          <t>43454</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1968,14 +1948,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>70336</t>
+          <t>18051</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1992,12 +1972,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>66638</t>
+          <t>58267</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2009,7 +1989,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>21130</t>
+          <t>37832</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2019,14 +1999,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>28291</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2043,58 +2023,58 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>72918</t>
+          <t>30456</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>P#rivate</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>67177</t>
+          <t>4712</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>42996</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>56546</t>
+          <t>16590</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2111,41 +2091,41 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8171</t>
+          <t>55810</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>12095</t>
+          <t>66955</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>16077</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2155,14 +2135,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>11014</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2172,31 +2152,31 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>66159</t>
+          <t>11999</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6855</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2206,14 +2186,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>.Private</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>31741</t>
+          <t>29158</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2223,19 +2203,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>17004</t>
+          <t>36841</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2247,7 +2227,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>54375</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2264,24 +2244,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>47269</t>
+          <t>23462</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>63884</t>
+          <t>44862</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2291,31 +2271,31 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>23410</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>42996</t>
+          <t>44993</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2325,14 +2305,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>40899</t>
+          <t>54312</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2342,14 +2322,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>-Public</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>12363</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2359,14 +2339,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>28493</t>
+          <t>41940</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2376,31 +2356,31 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>44993</t>
+          <t>54827</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>37893</t>
+          <t>53401</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2410,14 +2390,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>43364</t>
+          <t>36811</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2434,7 +2414,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>25099</t>
+          <t>32503</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2444,14 +2424,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>41413</t>
+          <t>12985</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2461,14 +2441,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>67177</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2478,48 +2458,48 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>68614</t>
+          <t>54724</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>SELF-EMPLOYED</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>8831</t>
+          <t>69037</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>55810</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2536,7 +2516,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10460</t>
+          <t>59125</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2546,53 +2526,53 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>12689</t>
+          <t>45535</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>66866</t>
+          <t>61960</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>38165</t>
+          <t>71796</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2604,24 +2584,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>51983</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>35512</t>
+          <t>66159</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2631,48 +2611,48 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>41523</t>
+          <t>56543</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>10913</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>P%rivate</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>66174</t>
+          <t>69768</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2682,14 +2662,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>54918</t>
+          <t>712</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2699,31 +2679,31 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employe)d</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>55351</t>
+          <t>10460</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>56841</t>
+          <t>65199</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2740,24 +2720,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>24977</t>
+          <t>66767</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>56716</t>
+          <t>18587</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2767,31 +2747,31 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>61960</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>18587</t>
+          <t>58631</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2808,12 +2788,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>66204</t>
+          <t>9608</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2825,7 +2805,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>40311</t>
+          <t>55680</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2842,41 +2822,36 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>31720</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>54375</t>
+          <t>25099</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Public</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>72214</t>
+          <t>41648</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2886,14 +2861,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>44749</t>
+          <t>48272</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2910,7 +2885,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20546</t>
+          <t>11120</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2920,48 +2895,43 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>23221</t>
+          <t>56974</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>33123</t>
+          <t>7696</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Self-employed</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>46703</t>
+          <t>28102</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2971,14 +2941,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>70822</t>
+          <t>61350</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2995,12 +2965,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>68798</t>
+          <t>8580</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">No </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3012,7 +2982,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>17019</t>
+          <t>34060</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3022,31 +2992,31 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>17718</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>68627</t>
+          <t>30683</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3056,19 +3026,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>54975</t>
+          <t>8831</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3080,12 +3050,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>70970</t>
+          <t>67733</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes </t>
+          <t>No</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3097,12 +3067,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>19584</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3114,12 +3084,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>37651</t>
+          <t>45277</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3131,7 +3101,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>21713</t>
+          <t>71585</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3148,7 +3118,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>7351</t>
+          <t>31091</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3158,14 +3128,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>56543</t>
+          <t>54921</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3182,12 +3152,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>19557</t>
+          <t>36471</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>(Yes</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3199,24 +3169,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>40181</t>
+          <t>6319</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>43424</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3233,58 +3203,58 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20463</t>
+          <t>31164</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>18108</t>
+          <t>59368</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>31563</t>
+          <t>47269</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>65836</t>
+          <t>69673</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3301,41 +3271,41 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>65460</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>52342</t>
+          <t>16371</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>11762</t>
+          <t>2374</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3345,14 +3315,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>58267</t>
+          <t>36255</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3369,7 +3339,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>19939</t>
+          <t>56112</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3379,14 +3349,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>15296</t>
+          <t>66972</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3403,7 +3373,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>16817</t>
+          <t>48368</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3420,7 +3390,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>65842</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3430,14 +3400,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>18518</t>
+          <t>22537</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3447,14 +3417,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>62861</t>
+          <t>22706</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3464,19 +3434,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>26015</t>
+          <t>35512</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,7 +3458,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>35684</t>
+          <t>23368</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3505,24 +3475,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>41648</t>
+          <t>34567</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>56112</t>
+          <t>56735</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3532,31 +3502,31 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>12109</t>
+          <t>67548</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>%Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>30683</t>
+          <t>52800</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3566,19 +3536,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>28799</t>
+          <t>28286</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3590,7 +3560,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>66333</t>
+          <t>62019</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3607,7 +3577,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>9179</t>
+          <t>34402</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3617,31 +3587,31 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>51112</t>
+          <t>20980</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>48588</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3651,36 +3621,36 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>66570</t>
+          <t>39105</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>11999</t>
+          <t>29552</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3692,7 +3662,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>38047</t>
+          <t>32689</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3702,14 +3672,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>55927</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3719,14 +3689,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>47472</t>
+          <t>16077</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3743,12 +3713,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>6726</t>
+          <t>41523</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,24 +3730,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>50931</t>
+          <t>10548</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>57419</t>
+          <t>10449</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3787,14 +3757,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>8595</t>
+          <t>37031</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3811,24 +3781,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>50965</t>
+          <t>31279</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>56974</t>
+          <t>31720</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3845,7 +3815,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>71539</t>
+          <t>13547</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3855,31 +3825,31 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>14431</t>
+          <t>20439</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>33486</t>
+          <t>15689</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3896,24 +3866,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6118</t>
+          <t>53882</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>&amp;Private</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>71038</t>
+          <t>29865</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3930,7 +3900,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>9046</t>
+          <t>49669</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3940,14 +3910,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>27213</t>
+          <t>52134</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3981,7 +3951,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>17739</t>
+          <t>32399</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3991,36 +3961,36 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>25226</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>31164</t>
+          <t>40181</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4032,24 +4002,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>28674</t>
+          <t>14248</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Priva.te</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">39912 </t>
+          <t>60148</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4059,14 +4029,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>63732</t>
+          <t>66570</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4076,31 +4046,31 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Priv_ate</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>69160</t>
+          <t>40670</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>31421</t>
+          <t>10552</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4110,26 +4080,31 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>71585</t>
+          <t>11838</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>44862</t>
+          <t>21713</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4146,7 +4121,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>51169</t>
+          <t>68627</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4156,14 +4131,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>11014</t>
+          <t>25831</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4173,14 +4148,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>50441</t>
+          <t>25904</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4190,31 +4165,31 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>41081</t>
+          <t>71639</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>45222</t>
+          <t>22470</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4224,14 +4199,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>69959</t>
+          <t>71379</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4241,31 +4216,31 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>66767</t>
+          <t>21284</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>53144</t>
+          <t>69936</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4282,24 +4257,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>30468</t>
+          <t>19584</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>18051</t>
+          <t>31421</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4309,19 +4284,19 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>9729</t>
+          <t>62466</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4333,7 +4308,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>58282</t>
+          <t>14499</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4350,12 +4325,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>12982</t>
+          <t>19557</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4367,7 +4342,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2893</t>
+          <t>16817</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4384,7 +4359,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>50305</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4394,31 +4369,31 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Publ.ic</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>15266</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>58978</t>
+          <t>44338</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4428,14 +4403,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>44033</t>
+          <t>61837</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4445,14 +4420,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>4480</t>
+          <t>26015</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4462,31 +4437,31 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>65946</t>
+          <t>49916</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>37031</t>
+          <t>21130</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4496,31 +4471,31 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Priva)te</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>54385</t>
+          <t>68614</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>51676</t>
+          <t>40899</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4530,14 +4505,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t xml:space="preserve">Private </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>58202</t>
+          <t>70630</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4554,12 +4529,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>36706</t>
+          <t>65535</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4571,7 +4546,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>69673</t>
+          <t>7351</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4588,126 +4563,116 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>60148</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>63050</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>17739</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>12985</t>
+          <t>61843</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>15528</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>29908</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>18937</t>
+          <t>40460</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>39186</t>
+          <t>31179</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>29552</t>
+          <t>70676</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>33879</t>
+          <t>63958</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4717,82 +4682,82 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>69768</t>
+          <t>8899</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Retired</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>31279</t>
+          <t>64908</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>27419</t>
+          <t>34974</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>30184</t>
+          <t>67432</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>30456</t>
+          <t>30468</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4802,19 +4767,19 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>8213</t>
+          <t>7621</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4826,7 +4791,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>59125</t>
+          <t>34376</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4836,14 +4801,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>64778</t>
+          <t>27153</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4853,19 +4818,19 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>36236</t>
+          <t>39038</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4877,29 +4842,29 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>28526</t>
+          <t>63732</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>71279</t>
+          <t>50784</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4911,41 +4876,41 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>70630</t>
+          <t>70943</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>69936</t>
+          <t>61465</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>50611</t>
+          <t>10710</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4955,14 +4920,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Pu.blic</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2182</t>
+          <t>5374</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4972,31 +4937,31 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>49465</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>38805</t>
+          <t>19939</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5006,14 +4971,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>50784</t>
+          <t>17608</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5030,12 +4995,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>64373</t>
+          <t>71279</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5047,7 +5012,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>23410</t>
+          <t>11577</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5057,14 +5022,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>66400</t>
+          <t>27213</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5074,31 +5039,31 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Reti!red</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>28939</t>
+          <t>19773</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Pu.blic</t>
+          <t>Publi-c</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>27153</t>
+          <t>11091</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5115,7 +5080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>50305</t>
+          <t>33454</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5125,31 +5090,31 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>27757</t>
+          <t>24977</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>12062</t>
+          <t>62439</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5159,36 +5124,36 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>17986</t>
+          <t>46436</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>33943</t>
+          <t>71539</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5200,24 +5165,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>10504</t>
+          <t>17986</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>17013</t>
+          <t>45538</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5234,24 +5199,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>56669</t>
+          <t>54385</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>69064</t>
+          <t>9487</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5268,7 +5233,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>37937</t>
+          <t>28674</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5278,14 +5243,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>62439</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5295,14 +5260,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>71379</t>
+          <t>37651</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5312,14 +5277,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>49003</t>
+          <t>10913</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5329,31 +5294,31 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>66955</t>
+          <t>58261</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>52173</t>
+          <t>53910</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5370,24 +5335,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>13491</t>
+          <t>43232</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>23462</t>
+          <t>32361</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -5397,53 +5362,48 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>7696</t>
+          <t>37937</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>*Public</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>19773</t>
+          <t>55927</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>63958</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>46474</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5455,7 +5415,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>15102</t>
+          <t>12917</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5472,24 +5432,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>29158</t>
+          <t>16523</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>72081</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5499,31 +5459,31 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>49669</t>
+          <t>71750</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>56681</t>
+          <t>60182</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5533,48 +5493,48 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>43454</t>
+          <t>28939</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>38119</t>
+          <t>30171</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>42807</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5584,31 +5544,31 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>28637</t>
+          <t>38165</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>66972</t>
+          <t>24905</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5618,31 +5578,31 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>68023</t>
+          <t>29933</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>48368</t>
+          <t>47175</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5659,63 +5619,63 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>56735</t>
+          <t>49130</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>59368</t>
+          <t>21058</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Self-emplo#yed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>67733</t>
+          <t>8752</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>22470</t>
+          <t>12175</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Y#es</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5727,46 +5687,46 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>31112</t>
+          <t>70822</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>32503</t>
+          <t>37893</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>8899</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5778,7 +5738,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>58617</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5795,41 +5755,41 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>10434</t>
+          <t>15649</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>68356</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>69687</t>
+          <t>65574</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5839,48 +5799,48 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>8003</t>
+          <t>10159</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>31091</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>32689</t>
+          <t>35846</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5897,12 +5857,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>34974</t>
+          <t>27458</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5914,24 +5874,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>29496</t>
+          <t>10504</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>42203</t>
+          <t>9046</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5941,14 +5901,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>46436</t>
+          <t>68483</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5965,7 +5925,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>34608</t>
+          <t>16380</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5982,12 +5942,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>58261</t>
+          <t>28645</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -5999,41 +5959,41 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>62602</t>
+          <t>56357</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>68794</t>
+          <t>49003</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>24447</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6043,14 +6003,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Retired</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>22537</t>
+          <t>13861</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -6060,14 +6020,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20387</t>
+          <t>49589</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6084,7 +6044,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>52800</t>
+          <t>58978</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6101,46 +6061,46 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>21956</t>
+          <t>8171</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Self&amp;-employed</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>37090</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>24669</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6152,7 +6112,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>21408</t>
+          <t>14123</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6162,31 +6122,31 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>70676</t>
+          <t>66071</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Se_lf-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>70943</t>
+          <t>7356</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6196,14 +6156,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>S@elf-employed</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>17308</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6213,14 +6173,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>36857</t>
+          <t>30669</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -6230,14 +6190,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t xml:space="preserve">Public </t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>32221</t>
+          <t>51169</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6247,14 +6207,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>45805</t>
+          <t>9179</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6264,53 +6224,53 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>30171</t>
+          <t>72918</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>36811</t>
+          <t>33486</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>^Yes</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-emplo$yed</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>48405</t>
+          <t>35626</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6322,12 +6282,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>32399</t>
+          <t>66638</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6339,29 +6299,29 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>65574</t>
+          <t>11974</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>14248</t>
+          <t>28378</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6373,7 +6333,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>34511</t>
+          <t>6855</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6390,41 +6350,41 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>45053</t>
+          <t>39912</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>13861</t>
+          <t>34511</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>21284</t>
+          <t>14431</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6434,31 +6394,31 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>16590</t>
+          <t>48796</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>PRIVATE</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>42117</t>
+          <t>25974</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6475,24 +6435,24 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>65357</t>
+          <t>31143</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>31830</t>
+          <t>10434</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6502,53 +6462,53 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20980</t>
+          <t>71038</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>47175</t>
+          <t>39373</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Y&amp;es</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Priva_te</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>41800</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6560,24 +6520,24 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>29865</t>
+          <t>68794</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>27029</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6587,14 +6547,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>43054</t>
+          <t>36275</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6611,7 +6571,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>7356</t>
+          <t>7371</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -6621,31 +6581,31 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>16371</t>
+          <t>56939</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>36338</t>
+          <t>9404</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -6662,7 +6622,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>32361</t>
+          <t>17013</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6672,19 +6632,19 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>7621</t>
+          <t>9729</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6696,24 +6656,24 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>56939</t>
+          <t>47306</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>71673</t>
+          <t>62602</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6723,14 +6683,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>29496</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6747,7 +6707,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>7559</t>
+          <t>46136</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6757,31 +6717,31 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>34120</t>
+          <t>51314</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>54312</t>
+          <t>20426</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6798,24 +6758,19 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>71639</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>42899</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Pu.blic</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>15689</t>
+          <t>18498</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6825,14 +6780,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>43232</t>
+          <t>45053</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6842,31 +6797,31 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>41800</t>
+          <t>8595</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>28333</t>
+          <t>12689</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6883,7 +6838,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>34060</t>
+          <t>50522</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6893,14 +6848,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>28102</t>
+          <t>22622</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6910,14 +6865,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>35578</t>
+          <t>31741</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6927,14 +6882,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6944,19 +6899,19 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>31154</t>
+          <t>31830</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6968,41 +6923,41 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>58617</t>
+          <t>33123</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Ye(s</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>37060</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t xml:space="preserve">4651 </t>
+          <t>3655</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7019,12 +6974,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>55824</t>
+          <t>50611</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7036,7 +6991,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>55680</t>
+          <t>60739</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7053,12 +7008,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>17242</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7070,7 +7025,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>28291</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7080,48 +7035,48 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>53401</t>
+          <t>64489</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>34668</t>
+          <t>68249</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>36275</t>
+          <t>66174</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7138,41 +7093,41 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>4639</t>
+          <t>55351</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Priva#te</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>28484</t>
+          <t>37060</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>P!UBLIC</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>43424</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -7189,24 +7144,24 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>45277</t>
+          <t>53440</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>56357</t>
+          <t>37089</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7216,7 +7171,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
@@ -7240,12 +7195,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>16934</t>
+          <t>49465</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7257,24 +7212,24 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>15649</t>
+          <t>72366</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>11838</t>
+          <t>20463</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -7284,14 +7239,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>36255</t>
+          <t>42807</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7301,14 +7256,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>32729</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7318,31 +7273,31 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>7371</t>
+          <t>67895</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>42899</t>
+          <t>45222</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7352,14 +7307,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Private </t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>67432</t>
+          <t>54695</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7376,12 +7331,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>26325</t>
+          <t>31154</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7393,41 +7348,46 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>52134</t>
+          <t>49713</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>41940</t>
+          <t>70042</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Pu(blic</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>66196</t>
+          <t>27419</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7439,7 +7399,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>64489</t>
+          <t>58600</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7456,24 +7416,24 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>41241</t>
+          <t>65357</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>36007</t>
+          <t>52342</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -7483,14 +7443,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>14123</t>
+          <t>11933</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -7500,14 +7460,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>22284</t>
+          <t>33759</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7524,7 +7484,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>54401</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -7541,7 +7501,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>48796</t>
+          <t>22320</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -7551,14 +7511,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self.-employed</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>36841</t>
+          <t>64553</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -7568,14 +7528,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>18498</t>
+          <t>54401</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -7592,7 +7552,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>69551</t>
+          <t>35578</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -7609,24 +7569,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>61837</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Pub^lic</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>63050</t>
+          <t>48588</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -7636,19 +7596,19 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>61843</t>
+          <t>66204</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t xml:space="preserve">No </t>
+          <t>No</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7660,7 +7620,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>11577</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -7670,31 +7630,31 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>5374</t>
+          <t>67981</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>25774</t>
+          <t>54975</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -7704,14 +7664,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>11120</t>
+          <t>69687</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7721,31 +7681,31 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>29217</t>
+          <t>36706</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t xml:space="preserve">Public </t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>3352</t>
+          <t>33404</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -7755,31 +7715,31 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>43717</t>
+          <t>41069</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>66866</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7789,36 +7749,36 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Privat+e</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>45965</t>
+          <t>40840</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>62466</t>
+          <t>59729</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7830,75 +7790,75 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>6319</t>
+          <t>8213</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>37726</t>
+          <t>35684</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>31143</t>
+          <t>70336</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>11974</t>
+          <t>56716</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>67981</t>
+          <t>72911</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7915,7 +7875,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>49916</t>
+          <t>36236</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7925,31 +7885,31 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>39038</t>
+          <t>28333</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>33759</t>
+          <t>23221</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7966,24 +7926,24 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>67895</t>
+          <t>32221</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>10710</t>
+          <t>66315</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7993,19 +7953,19 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>32257</t>
+          <t>43054</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8017,29 +7977,29 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>72911</t>
+          <t>36007</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>65535</t>
+          <t>15102</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8051,12 +8011,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>58600</t>
+          <t>26727</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8068,29 +8028,29 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>17718</t>
+          <t>34120</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Retired</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>11091</t>
+          <t>68798</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8102,7 +8062,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>54695</t>
+          <t>45719</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8119,7 +8079,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>69160</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -8129,31 +8089,31 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>29908</t>
+          <t>4630</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retired</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>64553</t>
+          <t>31112</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8163,14 +8123,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>22091</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -8180,14 +8140,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>45805</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8204,24 +8164,24 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>19824</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>44749</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -8238,12 +8198,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>9637</t>
+          <t>14164</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8255,19 +8215,24 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>51676</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>8752</t>
+          <t>41081</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8284,7 +8249,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>9404</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8301,12 +8266,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>54567</t>
+          <t>55824</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8318,7 +8283,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>45538</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8328,36 +8293,36 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>46136</t>
+          <t>68356</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>22320</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8369,24 +8334,24 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>17291</t>
+          <t>15296</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>37832</t>
+          <t>50965</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -8396,36 +8361,36 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>68249</t>
+          <t>56669</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>72214</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8437,7 +8402,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>66258</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -8447,19 +8412,19 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>69037</t>
+          <t>62608</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8471,12 +8436,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>28265</t>
+          <t>6726</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes </t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8488,7 +8453,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>60739</t>
+          <t>26325</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -8505,7 +8470,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>49713</t>
+          <t>28493</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -8515,14 +8480,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>67431</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -8532,14 +8497,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>5317</t>
+          <t>41241</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -8549,14 +8514,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>25974</t>
+          <t>55232</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -8573,7 +8538,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>26727</t>
+          <t>32729</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -8590,7 +8555,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>29217</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -8600,14 +8565,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>22706</t>
+          <t>62861</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -8617,31 +8582,31 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>35626</t>
+          <t>33879</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>72081</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -8658,7 +8623,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>40840</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -8675,12 +8640,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>21058</t>
+          <t>70970</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8690,14 +8655,9 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>60744</t>
-        </is>
-      </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8709,7 +8669,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>47306</t>
+          <t>53144</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -8719,14 +8679,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>38047</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -8743,7 +8703,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>28378</t>
+          <t>46785</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -8760,7 +8720,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>71238</t>
+          <t>68025</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -8777,43 +8737,38 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>6118</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>34376</t>
+          <t>17019</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>17308</t>
-        </is>
-      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>No</t>
@@ -8828,7 +8783,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>10552</t>
+          <t>49421</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -8838,14 +8793,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>20439</t>
+          <t>21408</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -8862,7 +8817,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>65460</t>
+          <t>47472</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8872,14 +8827,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>39105</t>
+          <t>12982</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -8889,14 +8844,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>59437</t>
+          <t>28265</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -8913,24 +8868,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>67548</t>
+          <t>69064</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>53910</t>
+          <t>20546</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8940,14 +8895,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>66315</t>
+          <t>38119</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8964,7 +8919,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>34402</t>
+          <t>27832</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8974,14 +8929,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>28645</t>
+          <t>34608</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8998,7 +8953,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>22284</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9015,58 +8970,58 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>65842</t>
+          <t>32257</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>46527</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>14499</t>
+          <t>17004</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>67318</t>
+          <t>64373</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -9076,14 +9031,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>67210</t>
+          <t>59437</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -9093,14 +9048,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Pr)ivate</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>44338</t>
+          <t>65836</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -9110,14 +9065,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>31179</t>
+          <t>52173</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -9134,41 +9089,41 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>51314</t>
+          <t>17291</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>53440</t>
+          <t>60744</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>@No</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>37132</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -9178,31 +9133,31 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Pub&amp;lic</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>46468</t>
+          <t>15528</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Self-employed</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>59906</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -9219,12 +9174,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>25904</t>
+          <t>42117</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9236,7 +9191,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>69112</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -9253,7 +9208,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>7282</t>
+          <t>63973</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -9263,14 +9218,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>59729</t>
+          <t>71238</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -9287,7 +9242,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>33454</t>
+          <t>71673</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9299,7 +9259,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>39373</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -9316,7 +9276,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>9487</t>
+          <t>66333</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -9333,7 +9293,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>34567</t>
+          <t>28637</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -9343,19 +9303,19 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Public</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>41413</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9367,7 +9327,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>25226</t>
+          <t>67318</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -9377,24 +9337,24 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Se.lf-employed</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>48405</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Public</t>
+          <t>Private</t>
         </is>
       </c>
     </row>
